--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R79490931fc47423e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R8431342887614c55"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,58 +27,58 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -91,7 +91,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="E7E6E6"/>
+        <x:fgColor rgb="FFE7E6E6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R8431342887614c55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R691b2fc04b6f4fab"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R691b2fc04b6f4fab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rdf73904a8a1d48b4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rdf73904a8a1d48b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re61e1161b79b444d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re61e1161b79b444d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R75efaff7418049a7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R75efaff7418049a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc9b7edeb7120466b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc9b7edeb7120466b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Ra110b9eca8c548e8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Ra110b9eca8c548e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R51daed68dc3547d4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R51daed68dc3547d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R72f9cbbc123c4260"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R72f9cbbc123c4260"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R8f43973b181d4f3e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R8f43973b181d4f3e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re9a292ed275c46ff"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re9a292ed275c46ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R18c40d496ea94f0c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R18c40d496ea94f0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R04c4736c89184b03"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R04c4736c89184b03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R920b30dbc6754eb6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R920b30dbc6754eb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R183f7a505d1d4ae1"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R183f7a505d1d4ae1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re1d7bbba65b948e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Re1d7bbba65b948e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R0c4d9c58a8814622"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R0c4d9c58a8814622"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rdc54c8f167634238"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rdc54c8f167634238"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R2a6808fa2a524438"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R2a6808fa2a524438"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc4be4da15fc54853"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rc4be4da15fc54853"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R406c1fa198804075"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R406c1fa198804075"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R0b2c5980550d40fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R0b2c5980550d40fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R59159abf944740fb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R59159abf944740fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R86500e11315e41cf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R86500e11315e41cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R9ed2c3e1a2334a3a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R9ed2c3e1a2334a3a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R1e6d9c13ecd742bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R1e6d9c13ecd742bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R96366270cb324aa7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R96366270cb324aa7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R30cd8b3c222a4d30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R30cd8b3c222a4d30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Ra3595459b5214b09"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Ra3595459b5214b09"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R76cb1891c9a0428c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R76cb1891c9a0428c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd281e50818de432a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd281e50818de432a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R15d063c6b3734d1a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R15d063c6b3734d1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R37e676ae9bee4147"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R37e676ae9bee4147"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R12c4cc156cfb46e6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R12c4cc156cfb46e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R54fc5c0f036f453f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R54fc5c0f036f453f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R4b6d9c4677ea48df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R4b6d9c4677ea48df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Reaa8b4b653c4414b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Reaa8b4b653c4414b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rb09276bc5d1b4eff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rb09276bc5d1b4eff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R55afadc7ff94452a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R55afadc7ff94452a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd5fa41f69ec1481f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="Rd5fa41f69ec1481f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R94d0583780dc41fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/33_TextAlignment.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R94d0583780dc41fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="1" r:id="R84436ce4a9d54fc9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
